--- a/templates/AutomationOrg/POSYDATA_AutomationOrg.xlsx
+++ b/templates/AutomationOrg/POSYDATA_AutomationOrg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Namrata\git\rsqasampleproj\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632D7085-F91D-4FE0-BAD9-5281A828F008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3157AEF-7CBC-4622-9CC4-603DDE0499A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{2D3706E6-F74E-412D-B856-F4DCD436F230}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="5" activeTab="8" xr2:uid="{2D3706E6-F74E-412D-B856-F4DCD436F230}"/>
   </bookViews>
   <sheets>
     <sheet name="POReceipt" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="43">
   <si>
     <t>Process</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Division</t>
   </si>
   <si>
-    <t>InvLocID</t>
-  </si>
-  <si>
     <t>LocNum</t>
   </si>
   <si>
@@ -153,22 +150,28 @@
     <t>a8d5f0000004JbG</t>
   </si>
   <si>
-    <t>a8s5f000000PtAg</t>
-  </si>
-  <si>
-    <t>a415f000000lOC4</t>
-  </si>
-  <si>
     <t>a345f000000tiH8</t>
   </si>
   <si>
     <t>a3A5f000000xGXA</t>
   </si>
   <si>
-    <t>a415f000000lOC9</t>
-  </si>
-  <si>
-    <t>a8s5f000000PtAhAAK</t>
+    <t>NPAuto_Purchased (Purchased item for automation)</t>
+  </si>
+  <si>
+    <t>BKF1 (Backflush)</t>
+  </si>
+  <si>
+    <t>InvLocName</t>
+  </si>
+  <si>
+    <t>NPAuto_Subcontract (Subcontract item for automation)</t>
+  </si>
+  <si>
+    <t>VBK1 (Vendor Backflush)</t>
+  </si>
+  <si>
+    <t>NP_Test_Subc (NP Engg Subcontract Item Test)</t>
   </si>
 </sst>
 </file>
@@ -537,7 +540,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,71 +577,71 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
       <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
         <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
       </c>
       <c r="I1" t="s">
         <v>0</v>
       </c>
       <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" t="s">
-        <v>17</v>
-      </c>
       <c r="N1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" t="s">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
       <c r="P1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
       <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
         <v>37</v>
       </c>
       <c r="K2">
@@ -648,16 +651,16 @@
         <v>10</v>
       </c>
       <c r="M2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" t="s">
         <v>33</v>
-      </c>
-      <c r="P2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +674,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,30 +693,30 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -737,24 +740,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>29</v>
-      </c>
-      <c r="B1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -767,7 +770,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G3"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,27 +797,27 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
         <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -822,19 +825,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -850,7 +853,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:L2"/>
+      <selection activeCell="L1" sqref="L1:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,25 +874,25 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
@@ -904,21 +907,21 @@
         <v>4</v>
       </c>
       <c r="L1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" t="s">
         <v>5</v>
-      </c>
-      <c r="M1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>40</v>
@@ -930,19 +933,19 @@
         <v>100</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L2" t="s">
         <v>41</v>
@@ -960,11 +963,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0343F24-40D4-4440-9D54-55228C8E570C}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -980,27 +986,27 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
         <v>41</v>
@@ -1022,12 +1028,14 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1047,18 +1055,18 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -1067,10 +1075,10 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -1111,24 +1119,24 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
         <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1160,24 +1168,24 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1189,12 +1197,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9460007-A700-4ED6-98B4-AD86377C25C9}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -1212,54 +1222,54 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
         <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
       </c>
       <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>15</v>
-      </c>
-      <c r="J1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
